--- a/export/Reports/Individual_System_DeepDive_Transition_Report_Template.xlsx
+++ b/export/Reports/Individual_System_DeepDive_Transition_Report_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvidalis\Documents\SVN\Semoss\export\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmart\workspace\Semoss\export\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1116" windowWidth="15120" windowHeight="6408" tabRatio="834" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1116" windowWidth="15120" windowHeight="6408" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Report Overview" sheetId="33" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Future Interface Decommission" sheetId="37" r:id="rId6"/>
     <sheet name="Future Interface Sustainment" sheetId="38" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -236,144 +236,10 @@
     </r>
   </si>
   <si>
-    <t>b. What configuration activities would need to be performed to integrate this system’s test environment with the DHMSM Test Data Center?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Has your team been coordinating with the DHMSM Test &amp; Evaluation group to plan for integration with the DHMSM Test Data Center?</t>
-    </r>
-  </si>
-  <si>
-    <t>c. Does the program currently have funding available to develop a new interface with DHMSM?</t>
-  </si>
-  <si>
-    <t>d. Does the program currently have contract scope to perform the work required to develop a new interface with DHMSM?</t>
-  </si>
-  <si>
-    <t>e. What is the level of effort and/or timeline in which the program can be modernized to support the DHMSM interface requirements, as specified in the Legacy Systems Modernization Tasker?</t>
-  </si>
-  <si>
-    <t>f. Are there any other risks that could affect this system’s ability to be modernized and configured to support DHMSM T&amp;E activities?</t>
-  </si>
-  <si>
     <t>2. Future-State Projections</t>
   </si>
   <si>
     <t>a. Identify how contractor will interact with system owners, etc.</t>
-  </si>
-  <si>
-    <r>
-      <t>This report details the characteristics and modernization activities required to transition the LPI system to the future-state environment. The report provides the following information and analysis regarding the LPI system:
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> System Overview</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - includes the system description along with any known Points of Contacts.
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Additional Questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Please provide/review answers to the questions from DHMSM T&amp;E or ICWG on this sheet. 
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Current-State Interface Definition </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- includes the systems current interfaces. Confirm the interfaces that the system currently supports, including the data objects exchanged, format, frequency and protocol; identify additional interface characteristics for the system, including the trigger events, ports, availability and response time
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Future-State Interfaces for Development, Decommissioning, and Sustainment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - based upon the capability defined in the DHMSM Requirements Traceability Matrix, validate the interfaces that are being proposed and will need to be supported by the system; review the list of systems expected to be replaced by DHMSM and validate that all data gaps are addressed</t>
-    </r>
   </si>
   <si>
     <r>
@@ -461,12 +327,37 @@
   <si>
     <t>Information Assurance</t>
   </si>
+  <si>
+    <t>e. What is the level of effort and/or timeline in which the program can be modernized to support the MHS GENESIS interface requirements, as specified in the Legacy Systems Modernization Tasker?</t>
+  </si>
+  <si>
+    <t>f. Are there any other risks that could affect this system’s ability to be modernized and configured to support MHS GENESIS T&amp;E activities?</t>
+  </si>
+  <si>
+    <t>b. What configuration activities would need to be performed to integrate this system’s test environment with the MHS GENESIS Test Data Center?</t>
+  </si>
+  <si>
+    <t>                                                    i.     Has your team been coordinating with the MHS GENESIS Test &amp; Evaluation group to plan for integration with the MHS GENESIS Test Data Center?</t>
+  </si>
+  <si>
+    <t>c. Does the program currently have funding available to develop a new interface with MHS GENESIS?</t>
+  </si>
+  <si>
+    <t>d. Does the program currently have contract scope to perform the work required to develop a new interface with MHS GENESIS?</t>
+  </si>
+  <si>
+    <t>This report details the characteristics and modernization activities required to transition the LPI system to the future-state environment. The report provides the following information and analysis regarding the LPI system:
+1. System Overview - includes the system description along with any known Points of Contacts.
+2. Additional Questions - Please provide/review answers to the questions from MHS GENESIS T&amp;E or ICWG on this sheet. 
+3. Current-State Interface Definition - includes the systems current interfaces. Confirm the interfaces that the system currently supports, including the data objects exchanged, format, frequency and protocol; identify additional interface characteristics for the system, including the trigger events, ports, availability and response time
+4. Future-State Interfaces for Development, Decommissioning, and Sustainment - based upon the capability defined in the MHS GENESIS Requirements Traceability Matrix, validate the interfaces that are being proposed and will need to be supported by the system; review the list of systems expected to be replaced by MHS GENESIS and validate that all data gaps are addressed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,13 +483,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -862,14 +746,14 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyBorder="1" applyAlignment="1">
@@ -912,44 +796,44 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,7 +1244,7 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
@@ -1442,7 +1326,7 @@
     </row>
     <row r="8" spans="1:12" ht="158.4" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -1536,7 +1420,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K13" sqref="K13:M13"/>
     </sheetView>
   </sheetViews>
@@ -1585,20 +1469,20 @@
     </row>
     <row r="3" spans="1:13" ht="32.25" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="7.5" customHeight="1">
       <c r="A4" s="4"/>
@@ -1624,22 +1508,22 @@
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="238.2" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13" ht="11.25" customHeight="1">
       <c r="A7" s="4"/>
@@ -1649,96 +1533,91 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="21">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="74.25" customHeight="1">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="21">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="39" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="39" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B9:M9"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="E13:G13"/>
@@ -1748,6 +1627,11 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B9:M9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,7 +1648,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1815,25 +1699,25 @@
     </row>
     <row r="6" spans="1:2" ht="28.8">
       <c r="A6" s="21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:2" ht="43.2">
       <c r="A7" s="22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2" ht="28.8">
       <c r="A8" s="21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:2" ht="28.8">
       <c r="A9" s="21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="25"/>
     </row>
@@ -1855,13 +1739,13 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" s="23"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B14" s="23"/>
     </row>
@@ -1948,7 +1832,7 @@
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="51" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
